--- a/doc/20180903_인터페이스정의서_백종원.xlsx
+++ b/doc/20180903_인터페이스정의서_백종원.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="현재_통합_문서"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" tabRatio="828"/>
   </bookViews>
   <sheets>
     <sheet name="OPEN_API" sheetId="1" r:id="rId1"/>
-    <sheet name="샘플_Protocol" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>순번</t>
   </si>
   <si>
-    <t>컬럼명</t>
-  </si>
-  <si>
     <t>설명</t>
   </si>
   <si>
-    <t>샘플</t>
-  </si>
-  <si>
     <t>API명</t>
   </si>
   <si>
@@ -44,135 +37,111 @@
     <t>비고</t>
   </si>
   <si>
-    <t>company</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>position</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>직급</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>department</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>부서</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{company='아임클라우드', name='홍길동', department='사업1팀', position='사원'}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>JSON</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>데이터 조회</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>데이터 추가</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>데이터 삭제</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DELETE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>투표 제출</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>회원 가입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>새로운 투표 생성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>투표 결과</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>투표 데이터를 서버로 전송</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/info/send/vote</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/create/vote</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/info/login/regist</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>/info/vote/result</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>참여한 투표 결과를 조회</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>회원 정보를 받아 서버로 전송 → 회원가입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>새로운 투표를 생성한다.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">투표 명, 항목, 설명, 만료일을 받는다. </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 코드의 투표정보 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>투표 정보 조회</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/vote/:code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -190,13 +159,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -235,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -263,30 +225,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -322,45 +260,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -368,18 +291,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,297 +468,208 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:H10"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="0.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="0.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="4.1500000000000004" customHeight="1"/>
-    <row r="2" spans="2:8" s="4" customFormat="1" ht="17.45" customHeight="1">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:8" s="2" customFormat="1" ht="17.45" customHeight="1">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:8" s="2" customFormat="1" ht="17.45" customHeight="1">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" s="2" customFormat="1" ht="17.45" customHeight="1">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="2:8" s="2" customFormat="1" ht="17.45" customHeight="1">
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" s="2" customFormat="1" ht="17.45" customHeight="1">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:8" s="2" customFormat="1" ht="17.45" customHeight="1">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:8" s="2" customFormat="1" ht="17.45" customHeight="1">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" s="2" customFormat="1" ht="17.45" customHeight="1">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" s="4" customFormat="1" ht="17.45" customHeight="1">
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="2:8" s="4" customFormat="1" ht="17.45" customHeight="1">
-      <c r="B4" s="8">
-        <v>2</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" s="4" customFormat="1" ht="17.45" customHeight="1">
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" s="4" customFormat="1" ht="17.45" customHeight="1">
-      <c r="B6" s="8">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="2:8" s="4" customFormat="1" ht="17.45" customHeight="1">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:8" s="4" customFormat="1" ht="17.45" customHeight="1">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:8" s="4" customFormat="1" ht="17.45" customHeight="1">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="2:8" s="4" customFormat="1" ht="17.45" customHeight="1">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" s="2" customFormat="1" ht="17.45" customHeight="1">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" s="2" customFormat="1" ht="17.45" customHeight="1">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.29998599999999997" footer="0.29998599999999997"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="22.15" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.29998599999999997" footer="0.29998599999999997"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>